--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_403__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_403__Reeval_LHS_Modell_1.3.xlsx
@@ -5876,13 +5876,13 @@
                   <c:v>70.47354888916016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.8726806640625</c:v>
+                  <c:v>64.87267303466797</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>61.875732421875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.16477966308594</c:v>
+                  <c:v>65.16478729248047</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>61.06394958496094</c:v>
@@ -5897,7 +5897,7 @@
                   <c:v>71.18852996826172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.60020446777344</c:v>
+                  <c:v>61.60019683837891</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>62.16673278808594</c:v>
@@ -5909,13 +5909,13 @@
                   <c:v>68.33286285400391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.78277587890625</c:v>
+                  <c:v>65.78278350830078</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>74.86141204833984</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.85605621337891</c:v>
+                  <c:v>61.85604858398438</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>69.87505340576172</c:v>
@@ -5930,7 +5930,7 @@
                   <c:v>63.87516021728516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.61568450927734</c:v>
+                  <c:v>75.61566162109375</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>64.29488372802734</c:v>
@@ -5942,13 +5942,13 @@
                   <c:v>71.3309326171875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.0390625</c:v>
+                  <c:v>66.03904724121094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.66840362548828</c:v>
+                  <c:v>70.66841888427734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.29037475585938</c:v>
+                  <c:v>60.29036712646484</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>75.68339538574219</c:v>
@@ -5957,19 +5957,19 @@
                   <c:v>66.46249389648438</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.69602966308594</c:v>
+                  <c:v>65.696044921875</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>63.47786712646484</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>64.59938049316406</c:v>
+                  <c:v>64.59938812255859</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67.78753662109375</c:v>
+                  <c:v>67.78752899169922</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72.88334655761719</c:v>
+                  <c:v>72.88333892822266</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>69.76099395751953</c:v>
@@ -5978,7 +5978,7 @@
                   <c:v>66.64720153808594</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.6796875</c:v>
+                  <c:v>69.67969512939453</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>72.75929260253906</c:v>
@@ -5987,10 +5987,10 @@
                   <c:v>64.82769775390625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.88539886474609</c:v>
+                  <c:v>70.88540649414062</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70.13541412353516</c:v>
+                  <c:v>70.13542175292969</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>69.28307342529297</c:v>
@@ -5999,25 +5999,25 @@
                   <c:v>55.12445831298828</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.87676239013672</c:v>
+                  <c:v>59.87674713134766</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.75440979003906</c:v>
+                  <c:v>67.75439453125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>73.97432708740234</c:v>
+                  <c:v>73.97431945800781</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>66.80326080322266</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.62513732910156</c:v>
+                  <c:v>61.62515258789062</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>68.30477905273438</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.20612335205078</c:v>
+                  <c:v>71.20613098144531</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>65.12856292724609</c:v>
@@ -6032,10 +6032,10 @@
                   <c:v>65.20423126220703</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>77.43388366699219</c:v>
+                  <c:v>77.43387603759766</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>75.75789642333984</c:v>
+                  <c:v>75.75790405273438</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>71.07408142089844</c:v>
@@ -6050,10 +6050,10 @@
                   <c:v>63.81467437744141</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>68.32354736328125</c:v>
+                  <c:v>68.32353973388672</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>73.21044158935547</c:v>
+                  <c:v>73.21043395996094</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>66.52796173095703</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>72.13241577148438</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>74.41265106201172</c:v>
+                  <c:v>74.41264343261719</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>65.993896484375</c:v>
@@ -6077,10 +6077,10 @@
                   <c:v>66.0936279296875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.89868927001953</c:v>
+                  <c:v>57.898681640625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>61.74164581298828</c:v>
+                  <c:v>61.74163818359375</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>65.17913818359375</c:v>
@@ -6098,13 +6098,13 @@
                   <c:v>68.52098846435547</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>61.32028961181641</c:v>
+                  <c:v>61.32028198242188</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>61.51589202880859</c:v>
+                  <c:v>61.51589965820312</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>64.34834289550781</c:v>
+                  <c:v>64.34833526611328</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>76.50719451904297</c:v>
@@ -6116,22 +6116,22 @@
                   <c:v>68.76588439941406</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>63.68685913085938</c:v>
+                  <c:v>63.68684387207031</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>70.31552886962891</c:v>
+                  <c:v>70.31552124023438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>73.26822662353516</c:v>
+                  <c:v>73.26823425292969</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>69.89839172363281</c:v>
+                  <c:v>69.89836883544922</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>58.61030578613281</c:v>
+                  <c:v>58.61029815673828</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>71.62355804443359</c:v>
+                  <c:v>71.62356567382812</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>65.51229858398438</c:v>
@@ -6140,22 +6140,22 @@
                   <c:v>76.63543701171875</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.82522583007812</c:v>
+                  <c:v>64.82523345947266</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>63.83502960205078</c:v>
+                  <c:v>63.83501434326172</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>56.0517578125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>78.24412536621094</c:v>
+                  <c:v>78.244140625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>73.89524078369141</c:v>
+                  <c:v>73.895263671875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>67.93336486816406</c:v>
+                  <c:v>67.93338012695312</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>71.05107116699219</c:v>
@@ -6891,7 +6891,7 @@
         <v>59.1361</v>
       </c>
       <c r="F3">
-        <v>64.8726806640625</v>
+        <v>64.87267303466797</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>65.16477966308594</v>
+        <v>65.16478729248047</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>61.60020446777344</v>
+        <v>61.60019683837891</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>65.78277587890625</v>
+        <v>65.78278350830078</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>70.16200000000001</v>
       </c>
       <c r="F16">
-        <v>61.85605621337891</v>
+        <v>61.85604858398438</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>75.61568450927734</v>
+        <v>75.61566162109375</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>66.0390625</v>
+        <v>66.03904724121094</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>70.66840362548828</v>
+        <v>70.66841888427734</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>36.6299</v>
       </c>
       <c r="F27">
-        <v>60.29037475585938</v>
+        <v>60.29036712646484</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>47.6665</v>
       </c>
       <c r="F30">
-        <v>65.69602966308594</v>
+        <v>65.696044921875</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>64.59938049316406</v>
+        <v>64.59938812255859</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>67.78753662109375</v>
+        <v>67.78752899169922</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>72.88334655761719</v>
+        <v>72.88333892822266</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>69.6796875</v>
+        <v>69.67969512939453</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>70.88539886474609</v>
+        <v>70.88540649414062</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>70.13541412353516</v>
+        <v>70.13542175292969</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.8982</v>
       </c>
       <c r="F44">
-        <v>59.87676239013672</v>
+        <v>59.87674713134766</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>88.4863</v>
       </c>
       <c r="F45">
-        <v>67.75440979003906</v>
+        <v>67.75439453125</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>73.97432708740234</v>
+        <v>73.97431945800781</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>61.62513732910156</v>
+        <v>61.62515258789062</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>71.20612335205078</v>
+        <v>71.20613098144531</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>77.43388366699219</v>
+        <v>77.43387603759766</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>50.2989</v>
       </c>
       <c r="F56">
-        <v>75.75789642333984</v>
+        <v>75.75790405273438</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>43.5825</v>
       </c>
       <c r="F61">
-        <v>68.32354736328125</v>
+        <v>68.32353973388672</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>46.4093</v>
       </c>
       <c r="F62">
-        <v>73.21044158935547</v>
+        <v>73.21043395996094</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>74.41265106201172</v>
+        <v>74.41264343261719</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>57.89868927001953</v>
+        <v>57.898681640625</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>48.8963</v>
       </c>
       <c r="F71">
-        <v>61.74164581298828</v>
+        <v>61.74163818359375</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>78.3785</v>
       </c>
       <c r="F77">
-        <v>61.32028961181641</v>
+        <v>61.32028198242188</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>61.51589202880859</v>
+        <v>61.51589965820312</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>64.34834289550781</v>
+        <v>64.34833526611328</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>88.9012</v>
       </c>
       <c r="F83">
-        <v>63.68685913085938</v>
+        <v>63.68684387207031</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>77.9639</v>
       </c>
       <c r="F84">
-        <v>70.31552886962891</v>
+        <v>70.31552124023438</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>73.26822662353516</v>
+        <v>73.26823425292969</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>68.0429</v>
       </c>
       <c r="F86">
-        <v>69.89839172363281</v>
+        <v>69.89836883544922</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>58.61030578613281</v>
+        <v>58.61029815673828</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>63.2242</v>
       </c>
       <c r="F88">
-        <v>71.62355804443359</v>
+        <v>71.62356567382812</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>64.82522583007812</v>
+        <v>64.82523345947266</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>63.83502960205078</v>
+        <v>63.83501434326172</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>78.24412536621094</v>
+        <v>78.244140625</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>73.89524078369141</v>
+        <v>73.895263671875</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>67.93336486816406</v>
+        <v>67.93338012695312</v>
       </c>
     </row>
     <row r="97" spans="1:6">
